--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/10/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>9.267099999999997</v>
+        <v>9.121399999999996</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.844600000000004</v>
+        <v>5.080200000000002</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.65990000000001</v>
+        <v>15.5173</v>
       </c>
     </row>
     <row r="8">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.2663</v>
+        <v>16.2418</v>
       </c>
     </row>
     <row r="16">
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>6.962499999999998</v>
+        <v>6.7318</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.9088</v>
+        <v>16.86880000000001</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>16.9364</v>
+        <v>16.8642</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.17569999999998</v>
+        <v>16.14569999999999</v>
       </c>
     </row>
     <row r="24">
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.7801</v>
+        <v>5.982600000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.021300000000003</v>
+        <v>4.909000000000003</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.471899999999993</v>
+        <v>7.440699999999996</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.16410000000002</v>
+        <v>17.02800000000001</v>
       </c>
     </row>
     <row r="35">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.701700000000002</v>
+        <v>8.850299999999999</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.36810000000001</v>
+        <v>17.29440000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.4207</v>
+        <v>16.3945</v>
       </c>
     </row>
     <row r="46">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.447</v>
+        <v>16.3431</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.36010000000001</v>
+        <v>17.3183</v>
       </c>
     </row>
     <row r="52">
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.319700000000001</v>
+        <v>5.165699999999999</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.937999999999994</v>
+        <v>4.890299999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1553,7 +1553,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.662099999999997</v>
+        <v>5.648899999999998</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1562,7 +1562,7 @@
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>17.12390000000001</v>
+        <v>17.08810000000001</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.17720000000002</v>
+        <v>17.1998</v>
       </c>
     </row>
     <row r="68">
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>18.23430000000002</v>
+        <v>18.17260000000002</v>
       </c>
     </row>
     <row r="80">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.7307</v>
+        <v>16.52659999999999</v>
       </c>
     </row>
     <row r="85">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.50980000000001</v>
+        <v>18.44770000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.5998</v>
+        <v>16.605</v>
       </c>
     </row>
     <row r="98">
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.6374</v>
+        <v>5.633999999999999</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
